--- a/ziliao/自动计算下单手数.xlsx
+++ b/ziliao/自动计算下单手数.xlsx
@@ -134,11 +134,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>比特币M5周期，每单1000点盈利</t>
+    <t>比特币M30周期，每单2000点盈利</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下单手数=仓位金额x12%÷1000点</t>
+    <t>下单手数=仓位金额x12%÷2000点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,23 +159,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -206,22 +189,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF00B0F0"/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,24 +230,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -257,51 +245,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF00B0F0"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF00B0F0"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF00B0F0"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF00B0F0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -309,60 +262,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -672,600 +616,600 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="12.375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="12.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="13" customWidth="1"/>
     <col min="6" max="6" width="7.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="5"/>
-    <col min="8" max="8" width="13.75" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="13.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <f>C4*E4/1000</f>
-        <v>0.03</v>
-      </c>
-      <c r="C4" s="10">
-        <v>250</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="B4" s="5">
+        <f>C4*E4/2000</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>300</v>
+      </c>
+      <c r="D4" s="10">
         <f>C4*(1+E4)</f>
-        <v>280</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="F4" s="14" t="s">
+        <v>336.00000000000006</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="4">
-        <f>H4*E4/1000</f>
-        <v>0.16420697277771137</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="G4" s="9">
+        <f>H4*E4/2000</f>
+        <v>9.8524183666626811E-2</v>
+      </c>
+      <c r="H4" s="10">
         <f>D18</f>
-        <v>1368.3914398142615</v>
-      </c>
-      <c r="I4" s="8">
+        <v>1642.0697277771135</v>
+      </c>
+      <c r="I4" s="10">
         <f>H4*(1+E4)</f>
-        <v>1532.5984125919731</v>
+        <v>1839.1180951103672</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
-        <f t="shared" ref="B5:B18" si="0">C5*E5/1000</f>
-        <v>3.3600000000000005E-2</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5" s="5">
+        <f t="shared" ref="B5:B18" si="0">C5*E5/2000</f>
+        <v>2.0160000000000004E-2</v>
+      </c>
+      <c r="C5" s="10">
         <f>D4</f>
-        <v>280</v>
-      </c>
-      <c r="D5" s="12">
+        <v>336.00000000000006</v>
+      </c>
+      <c r="D5" s="10">
         <f>C5*(1+E5)</f>
-        <v>313.60000000000002</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="F5" s="14" t="s">
+        <v>376.32000000000011</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="4">
-        <f t="shared" ref="G5:G18" si="1">H5*E5/1000</f>
-        <v>0.18391180951103678</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="G5" s="9">
+        <f t="shared" ref="G5:G18" si="1">H5*E5/2000</f>
+        <v>0.11034708570662202</v>
+      </c>
+      <c r="H5" s="10">
         <f t="shared" ref="H5:H18" si="2">I4</f>
-        <v>1532.5984125919731</v>
-      </c>
-      <c r="I5" s="8">
+        <v>1839.1180951103672</v>
+      </c>
+      <c r="I5" s="10">
         <f t="shared" ref="I5:I18" si="3">H5*(1+E5)</f>
-        <v>1716.5102221030099</v>
+        <v>2059.8122665236115</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <f t="shared" si="0"/>
-        <v>3.7631999999999999E-2</v>
-      </c>
-      <c r="C6" s="8">
+        <v>2.2579200000000008E-2</v>
+      </c>
+      <c r="C6" s="10">
         <f t="shared" ref="C6:C18" si="4">D5</f>
-        <v>313.60000000000002</v>
-      </c>
-      <c r="D6" s="12">
+        <v>376.32000000000011</v>
+      </c>
+      <c r="D6" s="10">
         <f t="shared" ref="D6:D18" si="5">C6*(1+E6)</f>
-        <v>351.23200000000008</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="F6" s="14" t="s">
+        <v>421.47840000000014</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="9">
         <f t="shared" si="1"/>
-        <v>0.20598122665236118</v>
-      </c>
-      <c r="H6" s="8">
+        <v>0.12358873599141669</v>
+      </c>
+      <c r="H6" s="10">
         <f t="shared" si="2"/>
-        <v>1716.5102221030099</v>
-      </c>
-      <c r="I6" s="8">
+        <v>2059.8122665236115</v>
+      </c>
+      <c r="I6" s="10">
         <f t="shared" si="3"/>
-        <v>1922.4914487553713</v>
+        <v>2306.9897385064451</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <f t="shared" si="0"/>
-        <v>4.2147840000000006E-2</v>
-      </c>
-      <c r="C7" s="8">
+        <v>2.5288704000000006E-2</v>
+      </c>
+      <c r="C7" s="10">
         <f t="shared" si="4"/>
-        <v>351.23200000000008</v>
-      </c>
-      <c r="D7" s="12">
+        <v>421.47840000000014</v>
+      </c>
+      <c r="D7" s="10">
         <f t="shared" si="5"/>
-        <v>393.37984000000012</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="F7" s="14" t="s">
+        <v>472.05580800000018</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="9">
         <f t="shared" si="1"/>
-        <v>0.23069897385064453</v>
-      </c>
-      <c r="H7" s="8">
+        <v>0.13841938431038669</v>
+      </c>
+      <c r="H7" s="10">
         <f t="shared" si="2"/>
-        <v>1922.4914487553713</v>
-      </c>
-      <c r="I7" s="8">
+        <v>2306.9897385064451</v>
+      </c>
+      <c r="I7" s="10">
         <f t="shared" si="3"/>
-        <v>2153.190422606016</v>
+        <v>2583.8285071272189</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <f t="shared" si="0"/>
-        <v>4.7205580800000015E-2</v>
-      </c>
-      <c r="C8" s="8">
+        <v>2.832334848000001E-2</v>
+      </c>
+      <c r="C8" s="10">
         <f t="shared" si="4"/>
-        <v>393.37984000000012</v>
-      </c>
-      <c r="D8" s="12">
+        <v>472.05580800000018</v>
+      </c>
+      <c r="D8" s="10">
         <f t="shared" si="5"/>
-        <v>440.58542080000018</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="F8" s="14" t="s">
+        <v>528.70250496000028</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="9">
         <f t="shared" si="1"/>
-        <v>0.25838285071272188</v>
-      </c>
-      <c r="H8" s="8">
+        <v>0.15502971042763311</v>
+      </c>
+      <c r="H8" s="10">
         <f t="shared" si="2"/>
-        <v>2153.190422606016</v>
-      </c>
-      <c r="I8" s="8">
+        <v>2583.8285071272189</v>
+      </c>
+      <c r="I8" s="10">
         <f t="shared" si="3"/>
-        <v>2411.5732733187383</v>
+        <v>2893.8879279824855</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <f t="shared" si="0"/>
-        <v>5.2870250496000019E-2</v>
-      </c>
-      <c r="C9" s="8">
+        <v>3.1722150297600019E-2</v>
+      </c>
+      <c r="C9" s="10">
         <f t="shared" si="4"/>
-        <v>440.58542080000018</v>
-      </c>
-      <c r="D9" s="12">
+        <v>528.70250496000028</v>
+      </c>
+      <c r="D9" s="10">
         <f t="shared" si="5"/>
-        <v>493.45567129600028</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="F9" s="14" t="s">
+        <v>592.14680555520033</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="9">
         <f t="shared" si="1"/>
-        <v>0.28938879279824858</v>
-      </c>
-      <c r="H9" s="8">
+        <v>0.17363327567894912</v>
+      </c>
+      <c r="H9" s="10">
         <f t="shared" si="2"/>
-        <v>2411.5732733187383</v>
-      </c>
-      <c r="I9" s="8">
+        <v>2893.8879279824855</v>
+      </c>
+      <c r="I9" s="10">
         <f t="shared" si="3"/>
-        <v>2700.962066116987</v>
+        <v>3241.1544793403841</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <f t="shared" si="0"/>
-        <v>5.9214680555520031E-2</v>
-      </c>
-      <c r="C10" s="8">
+        <v>3.5528808333312019E-2</v>
+      </c>
+      <c r="C10" s="10">
         <f t="shared" si="4"/>
-        <v>493.45567129600028</v>
-      </c>
-      <c r="D10" s="12">
+        <v>592.14680555520033</v>
+      </c>
+      <c r="D10" s="10">
         <f t="shared" si="5"/>
-        <v>552.67035185152031</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="F10" s="14" t="s">
+        <v>663.20442222182442</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="9">
         <f t="shared" si="1"/>
-        <v>0.3241154479340384</v>
-      </c>
-      <c r="H10" s="8">
+        <v>0.19446926876042303</v>
+      </c>
+      <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>2700.962066116987</v>
-      </c>
-      <c r="I10" s="8">
+        <v>3241.1544793403841</v>
+      </c>
+      <c r="I10" s="10">
         <f t="shared" si="3"/>
-        <v>3025.0775140510259</v>
+        <v>3630.0930168612304</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <f t="shared" si="0"/>
-        <v>6.6320442222182432E-2</v>
-      </c>
-      <c r="C11" s="8">
+        <v>3.9792265333309464E-2</v>
+      </c>
+      <c r="C11" s="10">
         <f t="shared" si="4"/>
-        <v>552.67035185152031</v>
-      </c>
-      <c r="D11" s="12">
+        <v>663.20442222182442</v>
+      </c>
+      <c r="D11" s="10">
         <f t="shared" si="5"/>
-        <v>618.99079407370277</v>
-      </c>
-      <c r="E11" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="F11" s="14" t="s">
+        <v>742.78895288844342</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="9">
         <f t="shared" si="1"/>
-        <v>0.36300930168612305</v>
-      </c>
-      <c r="H11" s="8">
+        <v>0.2178055810116738</v>
+      </c>
+      <c r="H11" s="10">
         <f t="shared" si="2"/>
-        <v>3025.0775140510259</v>
-      </c>
-      <c r="I11" s="8">
+        <v>3630.0930168612304</v>
+      </c>
+      <c r="I11" s="10">
         <f t="shared" si="3"/>
-        <v>3388.0868157371492</v>
+        <v>4065.7041788845786</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <f t="shared" si="0"/>
-        <v>7.4278895288844321E-2</v>
-      </c>
-      <c r="C12" s="8">
+        <v>4.4567337173306604E-2</v>
+      </c>
+      <c r="C12" s="10">
         <f t="shared" si="4"/>
-        <v>618.99079407370277</v>
-      </c>
-      <c r="D12" s="12">
+        <v>742.78895288844342</v>
+      </c>
+      <c r="D12" s="10">
         <f t="shared" si="5"/>
-        <v>693.26968936254718</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="F12" s="14" t="s">
+        <v>831.92362723505676</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="9">
         <f t="shared" si="1"/>
-        <v>0.40657041788845788</v>
-      </c>
-      <c r="H12" s="8">
+        <v>0.24394225073307471</v>
+      </c>
+      <c r="H12" s="10">
         <f t="shared" si="2"/>
-        <v>3388.0868157371492</v>
-      </c>
-      <c r="I12" s="8">
+        <v>4065.7041788845786</v>
+      </c>
+      <c r="I12" s="10">
         <f t="shared" si="3"/>
-        <v>3794.6572336256077</v>
+        <v>4553.5886803507283</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <f t="shared" si="0"/>
-        <v>8.319236272350565E-2</v>
-      </c>
-      <c r="C13" s="8">
+        <v>4.9915417634103405E-2</v>
+      </c>
+      <c r="C13" s="10">
         <f t="shared" si="4"/>
-        <v>693.26968936254718</v>
-      </c>
-      <c r="D13" s="12">
+        <v>831.92362723505676</v>
+      </c>
+      <c r="D13" s="10">
         <f t="shared" si="5"/>
-        <v>776.46205208605295</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="F13" s="14" t="s">
+        <v>931.75446250326365</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="9">
         <f t="shared" si="1"/>
-        <v>0.45535886803507292</v>
-      </c>
-      <c r="H13" s="8">
+        <v>0.27321532082104372</v>
+      </c>
+      <c r="H13" s="10">
         <f t="shared" si="2"/>
-        <v>3794.6572336256077</v>
-      </c>
-      <c r="I13" s="8">
+        <v>4553.5886803507283</v>
+      </c>
+      <c r="I13" s="10">
         <f t="shared" si="3"/>
-        <v>4250.0161016606808</v>
+        <v>5100.019321992816</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <f t="shared" si="0"/>
-        <v>9.3175446250326352E-2</v>
-      </c>
-      <c r="C14" s="8">
+        <v>5.5905267750195817E-2</v>
+      </c>
+      <c r="C14" s="10">
         <f t="shared" si="4"/>
-        <v>776.46205208605295</v>
-      </c>
-      <c r="D14" s="12">
+        <v>931.75446250326365</v>
+      </c>
+      <c r="D14" s="10">
         <f t="shared" si="5"/>
-        <v>869.63749833637939</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="F14" s="14" t="s">
+        <v>1043.5649980036553</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="9">
         <f t="shared" si="1"/>
-        <v>0.51000193219928169</v>
-      </c>
-      <c r="H14" s="8">
+        <v>0.30600115931956895</v>
+      </c>
+      <c r="H14" s="10">
         <f t="shared" si="2"/>
-        <v>4250.0161016606808</v>
-      </c>
-      <c r="I14" s="8">
+        <v>5100.019321992816</v>
+      </c>
+      <c r="I14" s="10">
         <f t="shared" si="3"/>
-        <v>4760.018033859963</v>
+        <v>5712.0216406319541</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <f t="shared" si="0"/>
-        <v>0.10435649980036553</v>
-      </c>
-      <c r="C15" s="8">
+        <v>6.2613899880219315E-2</v>
+      </c>
+      <c r="C15" s="10">
         <f t="shared" si="4"/>
-        <v>869.63749833637939</v>
-      </c>
-      <c r="D15" s="12">
+        <v>1043.5649980036553</v>
+      </c>
+      <c r="D15" s="10">
         <f t="shared" si="5"/>
-        <v>973.99399813674506</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="F15" s="14" t="s">
+        <v>1168.7927977640941</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="9">
         <f t="shared" si="1"/>
-        <v>0.57120216406319546</v>
-      </c>
-      <c r="H15" s="8">
+        <v>0.34272129843791727</v>
+      </c>
+      <c r="H15" s="10">
         <f t="shared" si="2"/>
-        <v>4760.018033859963</v>
-      </c>
-      <c r="I15" s="8">
+        <v>5712.0216406319541</v>
+      </c>
+      <c r="I15" s="10">
         <f t="shared" si="3"/>
-        <v>5331.2201979231595</v>
+        <v>6397.4642375077892</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <f t="shared" si="0"/>
-        <v>0.11687927977640941</v>
-      </c>
-      <c r="C16" s="8">
+        <v>7.0127567865845647E-2</v>
+      </c>
+      <c r="C16" s="10">
         <f t="shared" si="4"/>
-        <v>973.99399813674506</v>
-      </c>
-      <c r="D16" s="12">
+        <v>1168.7927977640941</v>
+      </c>
+      <c r="D16" s="10">
         <f t="shared" si="5"/>
-        <v>1090.8732779131547</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="F16" s="14" t="s">
+        <v>1309.0479334957854</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="9">
         <f t="shared" si="1"/>
-        <v>0.63974642375077917</v>
-      </c>
-      <c r="H16" s="8">
+        <v>0.3838478542504673</v>
+      </c>
+      <c r="H16" s="10">
         <f t="shared" si="2"/>
-        <v>5331.2201979231595</v>
-      </c>
-      <c r="I16" s="8">
+        <v>6397.4642375077892</v>
+      </c>
+      <c r="I16" s="10">
         <f t="shared" si="3"/>
-        <v>5970.9666216739388</v>
+        <v>7165.1599460087245</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <f t="shared" si="0"/>
-        <v>0.13090479334957855</v>
-      </c>
-      <c r="C17" s="8">
+        <v>7.8542876009747117E-2</v>
+      </c>
+      <c r="C17" s="10">
         <f t="shared" si="4"/>
-        <v>1090.8732779131547</v>
-      </c>
-      <c r="D17" s="12">
+        <v>1309.0479334957854</v>
+      </c>
+      <c r="D17" s="10">
         <f t="shared" si="5"/>
-        <v>1221.7780712627334</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="F17" s="14" t="s">
+        <v>1466.1336855152797</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="9">
         <f t="shared" si="1"/>
-        <v>0.71651599460087267</v>
-      </c>
-      <c r="H17" s="8">
+        <v>0.42990959676052348</v>
+      </c>
+      <c r="H17" s="10">
         <f t="shared" si="2"/>
-        <v>5970.9666216739388</v>
-      </c>
-      <c r="I17" s="8">
+        <v>7165.1599460087245</v>
+      </c>
+      <c r="I17" s="10">
         <f t="shared" si="3"/>
-        <v>6687.4826162748122</v>
+        <v>8024.9791395297725</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <f t="shared" si="0"/>
-        <v>0.14661336855152801</v>
-      </c>
-      <c r="C18" s="8">
+        <v>8.7968021130916785E-2</v>
+      </c>
+      <c r="C18" s="10">
         <f t="shared" si="4"/>
-        <v>1221.7780712627334</v>
-      </c>
-      <c r="D18" s="12">
+        <v>1466.1336855152797</v>
+      </c>
+      <c r="D18" s="10">
         <f t="shared" si="5"/>
-        <v>1368.3914398142615</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="F18" s="14" t="s">
+        <v>1642.0697277771135</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="9">
         <f t="shared" si="1"/>
-        <v>0.80249791395297743</v>
-      </c>
-      <c r="H18" s="8">
+        <v>0.48149874837178636</v>
+      </c>
+      <c r="H18" s="10">
         <f t="shared" si="2"/>
-        <v>6687.4826162748122</v>
-      </c>
-      <c r="I18" s="8">
+        <v>8024.9791395297725</v>
+      </c>
+      <c r="I18" s="10">
         <f t="shared" si="3"/>
-        <v>7489.98053022779</v>
+        <v>8987.9766362733462</v>
       </c>
     </row>
   </sheetData>
